--- a/biology/Botanique/Manihot/Manihot.xlsx
+++ b/biology/Botanique/Manihot/Manihot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manihot est un genre de plantes dicotylédones de la famille des Euphorbiaceae, originaire du continent américain, qui comprend une centaine d'espèces acceptées. Ce genre a été décrit en 1754 par le botaniste d'origine écossaise Philip Miller[3] avec pour spécimen type le manioc (Manihot esculenta Crantz.)[1], plante originaire d'Amérique latine produisant des tubercules comestibles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manihot est un genre de plantes dicotylédones de la famille des Euphorbiaceae, originaire du continent américain, qui comprend une centaine d'espèces acceptées. Ce genre a été décrit en 1754 par le botaniste d'origine écossaise Philip Miller avec pour spécimen type le manioc (Manihot esculenta Crantz.), plante originaire d'Amérique latine produisant des tubercules comestibles.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Manihot quinqueloba et Manihot peltata.
 			Manihot palmata.
 			Manihot salicifolia.
 			Manihot violacea.
-Selon World Checklist of Selected Plant Families (WCSP)  (31 mai 2018)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (31 mai 2018) :
 Manihot acuminatissima Müll.Arg. (1874)
 Manihot aesculifolia (Kunth) Pohl (1827)
 Manihot allemii M.J.Silva (2016)
@@ -655,7 +669,7 @@
 Manihot weddelliana Baill. (1864)
 Manihot xavantinensis D.J.Rogers &amp; Appan (1973)
 Manihot zehntneri Ule (1914)
-Selon The Plant List            (31 mai 2018)[5] :
+Selon The Plant List            (31 mai 2018) :
 Manihot acuminatissima Müll.Arg.
 Manihot aesculifolia (Kunth) Pohl
 Manihot alutacea D.J.Rogers &amp; Appan
@@ -765,7 +779,7 @@
 Manihot xavantinensis D.J.Rogers &amp; Appan
 Manihot zehntneri Ule
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (31 mai 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (31 mai 2018) (Attention liste brute contenant possiblement des synonymes) :
 Manihot acuminatissima Müll. Arg.
 Manihot acutiloba Weath.
 Manihot aesculifolia (Kunth) Pohl
